--- a/biology/Histoire de la zoologie et de la botanique/Samuel_Paul_Welles/Samuel_Paul_Welles.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_Paul_Welles/Samuel_Paul_Welles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Paul Welles est un paléontologue américain, né le 9 novembre 1907 et mort le 6 août 1997.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est chercheur associé au musée de paléontologie de l’université de Californie à Berkeley.
 </t>
@@ -542,7 +556,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Megalosaurus wetherilli, 1954 (recombiné en 1970, en Dilophosaurus)
 Dilophosaurus, 1970
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) S. P. Welles. 1954. « New Jurassic dinosaur from the Kayenta Formation of Arizona ». Bulletin of the Geological Society of America 65:591-598.
 (en) S. P. Welles. 1970. « Dilophosaurus (Reptilia: Saurischia), a new name for a dinosaur ». Journal of Paleontology 44:989.</t>
